--- a/testData/WebForm/TC017_WF_RRN_OneY_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC017_WF_RRN_OneY_TwoYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="140">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -349,6 +349,96 @@
   </si>
   <si>
     <t>9840037062</t>
+  </si>
+  <si>
+    <t>9840032832</t>
+  </si>
+  <si>
+    <t>9840046044</t>
+  </si>
+  <si>
+    <t>9840014113</t>
+  </si>
+  <si>
+    <t>9840025124</t>
+  </si>
+  <si>
+    <t>9840089710</t>
+  </si>
+  <si>
+    <t>9840088353</t>
+  </si>
+  <si>
+    <t>9840049578</t>
+  </si>
+  <si>
+    <t>9840065254</t>
+  </si>
+  <si>
+    <t>9840022084</t>
+  </si>
+  <si>
+    <t>9840090377</t>
+  </si>
+  <si>
+    <t>9840077081</t>
+  </si>
+  <si>
+    <t>9840048524</t>
+  </si>
+  <si>
+    <t>9840074568</t>
+  </si>
+  <si>
+    <t>9840020813</t>
+  </si>
+  <si>
+    <t>9840035038</t>
+  </si>
+  <si>
+    <t>9840068908</t>
+  </si>
+  <si>
+    <t>9840014869</t>
+  </si>
+  <si>
+    <t>9840055255</t>
+  </si>
+  <si>
+    <t>9840001806</t>
+  </si>
+  <si>
+    <t>9840062268</t>
+  </si>
+  <si>
+    <t>9840033073</t>
+  </si>
+  <si>
+    <t>9840009517</t>
+  </si>
+  <si>
+    <t>9840044845</t>
+  </si>
+  <si>
+    <t>9840041288</t>
+  </si>
+  <si>
+    <t>9840064746</t>
+  </si>
+  <si>
+    <t>9840088174</t>
+  </si>
+  <si>
+    <t>9840021758</t>
+  </si>
+  <si>
+    <t>9840048052</t>
+  </si>
+  <si>
+    <t>9840000558</t>
+  </si>
+  <si>
+    <t>9840083709</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1065,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1074,7 +1164,7 @@
         <v>83</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="s" s="0">
         <v>60</v>
@@ -1148,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1195,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1242,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1290,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1337,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1384,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1431,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1478,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1525,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1572,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1619,7 +1709,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1666,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1713,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1760,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC017_WF_RRN_OneY_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC017_WF_RRN_OneY_TwoYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="155">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -439,6 +439,51 @@
   </si>
   <si>
     <t>9840083709</t>
+  </si>
+  <si>
+    <t>9840029214</t>
+  </si>
+  <si>
+    <t>9840061411</t>
+  </si>
+  <si>
+    <t>9840091448</t>
+  </si>
+  <si>
+    <t>9840069322</t>
+  </si>
+  <si>
+    <t>9840048063</t>
+  </si>
+  <si>
+    <t>9840059187</t>
+  </si>
+  <si>
+    <t>9840082716</t>
+  </si>
+  <si>
+    <t>9840054195</t>
+  </si>
+  <si>
+    <t>9840059178</t>
+  </si>
+  <si>
+    <t>9840014332</t>
+  </si>
+  <si>
+    <t>9840085811</t>
+  </si>
+  <si>
+    <t>9840091747</t>
+  </si>
+  <si>
+    <t>9840030115</t>
+  </si>
+  <si>
+    <t>9840080355</t>
+  </si>
+  <si>
+    <t>9840037695</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1164,7 +1209,7 @@
         <v>83</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="AN2" t="s" s="0">
         <v>60</v>
@@ -1238,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1285,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1332,7 +1377,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1380,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1427,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1474,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1521,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1568,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1615,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1662,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1709,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1756,7 +1801,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1803,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1850,7 +1895,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC017_WF_RRN_OneY_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC017_WF_RRN_OneY_TwoYN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -243,15 +243,6 @@
     <t>Zafar</t>
   </si>
   <si>
-    <t>9840049573</t>
-  </si>
-  <si>
-    <t>9840091900</t>
-  </si>
-  <si>
-    <t>9840076471</t>
-  </si>
-  <si>
     <t>Kimberly</t>
   </si>
   <si>
@@ -282,208 +273,76 @@
     <t>WF_RRN_OneY_TwoYN_Test</t>
   </si>
   <si>
-    <t>9840023142</t>
-  </si>
-  <si>
-    <t>9840069089</t>
-  </si>
-  <si>
-    <t>9840098943</t>
-  </si>
-  <si>
-    <t>9840055402</t>
-  </si>
-  <si>
-    <t>9840053594</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>9840032856</t>
-  </si>
-  <si>
-    <t>9840088023</t>
-  </si>
-  <si>
-    <t>9840005674</t>
+    <t>9840029214</t>
+  </si>
+  <si>
+    <t>9840061411</t>
+  </si>
+  <si>
+    <t>9840091448</t>
+  </si>
+  <si>
+    <t>9840069322</t>
+  </si>
+  <si>
+    <t>9840048063</t>
+  </si>
+  <si>
+    <t>9840059187</t>
+  </si>
+  <si>
+    <t>9840082716</t>
+  </si>
+  <si>
+    <t>9840054195</t>
+  </si>
+  <si>
+    <t>9840059178</t>
+  </si>
+  <si>
+    <t>9840014332</t>
+  </si>
+  <si>
+    <t>9840085811</t>
+  </si>
+  <si>
+    <t>9840091747</t>
+  </si>
+  <si>
+    <t>9840030115</t>
+  </si>
+  <si>
+    <t>9840080355</t>
+  </si>
+  <si>
+    <t>9840037695</t>
+  </si>
+  <si>
+    <t>9840094282</t>
+  </si>
+  <si>
+    <t>9840074540</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9840096785</t>
+  </si>
+  <si>
+    <t>9840067175</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9840079934</t>
-  </si>
-  <si>
-    <t>9840035908</t>
-  </si>
-  <si>
-    <t>9840083941</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9840013907</t>
-  </si>
-  <si>
-    <t>9840082424</t>
-  </si>
-  <si>
-    <t>9840030334</t>
-  </si>
-  <si>
-    <t>9840041795</t>
-  </si>
-  <si>
-    <t>9840074618</t>
-  </si>
-  <si>
-    <t>9840097690</t>
-  </si>
-  <si>
-    <t>9840004191</t>
-  </si>
-  <si>
-    <t>9840019159</t>
-  </si>
-  <si>
-    <t>9840037062</t>
-  </si>
-  <si>
-    <t>9840032832</t>
-  </si>
-  <si>
-    <t>9840046044</t>
-  </si>
-  <si>
-    <t>9840014113</t>
-  </si>
-  <si>
-    <t>9840025124</t>
-  </si>
-  <si>
-    <t>9840089710</t>
-  </si>
-  <si>
-    <t>9840088353</t>
-  </si>
-  <si>
-    <t>9840049578</t>
-  </si>
-  <si>
-    <t>9840065254</t>
-  </si>
-  <si>
-    <t>9840022084</t>
-  </si>
-  <si>
-    <t>9840090377</t>
-  </si>
-  <si>
-    <t>9840077081</t>
-  </si>
-  <si>
-    <t>9840048524</t>
-  </si>
-  <si>
-    <t>9840074568</t>
-  </si>
-  <si>
-    <t>9840020813</t>
-  </si>
-  <si>
-    <t>9840035038</t>
-  </si>
-  <si>
-    <t>9840068908</t>
-  </si>
-  <si>
-    <t>9840014869</t>
-  </si>
-  <si>
-    <t>9840055255</t>
-  </si>
-  <si>
-    <t>9840001806</t>
-  </si>
-  <si>
-    <t>9840062268</t>
-  </si>
-  <si>
-    <t>9840033073</t>
-  </si>
-  <si>
-    <t>9840009517</t>
-  </si>
-  <si>
-    <t>9840044845</t>
-  </si>
-  <si>
-    <t>9840041288</t>
-  </si>
-  <si>
-    <t>9840064746</t>
-  </si>
-  <si>
-    <t>9840088174</t>
-  </si>
-  <si>
-    <t>9840021758</t>
-  </si>
-  <si>
-    <t>9840048052</t>
-  </si>
-  <si>
-    <t>9840000558</t>
-  </si>
-  <si>
-    <t>9840083709</t>
-  </si>
-  <si>
-    <t>9840029214</t>
-  </si>
-  <si>
-    <t>9840061411</t>
-  </si>
-  <si>
-    <t>9840091448</t>
-  </si>
-  <si>
-    <t>9840069322</t>
-  </si>
-  <si>
-    <t>9840048063</t>
-  </si>
-  <si>
-    <t>9840059187</t>
-  </si>
-  <si>
-    <t>9840082716</t>
-  </si>
-  <si>
-    <t>9840054195</t>
-  </si>
-  <si>
-    <t>9840059178</t>
-  </si>
-  <si>
-    <t>9840014332</t>
-  </si>
-  <si>
-    <t>9840085811</t>
-  </si>
-  <si>
-    <t>9840091747</t>
-  </si>
-  <si>
-    <t>9840030115</t>
-  </si>
-  <si>
-    <t>9840080355</t>
-  </si>
-  <si>
-    <t>9840037695</t>
+    <t>9840050417</t>
+  </si>
+  <si>
+    <t>9840023067</t>
   </si>
 </sst>
 </file>
@@ -862,59 +721,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1093,7 +952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s" s="0">
         <v>12</v>
@@ -1110,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1176,7 +1035,7 @@
         <v>50</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1185,7 +1044,7 @@
         <v>50</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>17</v>
@@ -1194,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1206,10 +1065,10 @@
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AN2" t="s" s="0">
         <v>60</v>
@@ -1218,7 +1077,7 @@
         <v>60</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>17</v>
@@ -1227,7 +1086,7 @@
         <v>50</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1236,7 +1095,7 @@
         <v>50</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>50</v>
@@ -1245,7 +1104,7 @@
         <v>50</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>17</v>
@@ -1254,7 +1113,7 @@
         <v>50</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>50</v>
@@ -1266,7 +1125,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1274,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
@@ -1283,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1310,10 +1169,10 @@
         <v>52</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1321,7 +1180,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>12</v>
@@ -1330,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1357,10 +1216,10 @@
         <v>53</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1227,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>12</v>
@@ -1377,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1404,11 +1263,11 @@
         <v>54</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>12</v>
@@ -1425,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1452,10 +1311,10 @@
         <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1463,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>12</v>
@@ -1472,7 +1331,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1502,7 +1361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>12</v>
@@ -1519,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1546,10 +1405,10 @@
         <v>47</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1416,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>12</v>
@@ -1566,7 +1425,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1596,7 +1455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>12</v>
@@ -1613,7 +1472,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1640,10 +1499,10 @@
         <v>54</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1651,7 +1510,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>12</v>
@@ -1660,7 +1519,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>11</v>
@@ -1687,10 +1546,10 @@
         <v>47</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1557,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>12</v>
@@ -1707,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>11</v>
@@ -1734,10 +1593,10 @@
         <v>47</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1604,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>12</v>
@@ -1754,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>11</v>
@@ -1781,10 +1640,10 @@
         <v>52</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,7 +1651,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>12</v>
@@ -1801,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -1828,10 +1687,10 @@
         <v>55</v>
       </c>
       <c r="O14" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1839,7 +1698,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>12</v>
@@ -1848,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>11</v>
@@ -1875,10 +1734,10 @@
         <v>53</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1886,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>12</v>
@@ -1895,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>11</v>
@@ -1922,7 +1781,7 @@
         <v>47</v>
       </c>
       <c r="O16" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
